--- a/asiganciones.xlsx
+++ b/asiganciones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mi unidad\Sena\Danilo\git-flow en grupo\git-flow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89D35AA-C58A-443D-9AEC-3A1356007155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D66B7A-23DC-484D-A1D2-C613F9A24601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="33">
   <si>
     <t>#</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Responsable</t>
   </si>
   <si>
-    <t>Configuración y Creación Excel de Tareas</t>
-  </si>
-  <si>
     <t>f_config_project</t>
   </si>
   <si>
@@ -84,9 +81,6 @@
     <t>Crear Menu de Opciones</t>
   </si>
   <si>
-    <t>f_menu</t>
-  </si>
-  <si>
     <t>Consultar Producto</t>
   </si>
   <si>
@@ -103,6 +97,33 @@
   </si>
   <si>
     <t>TEAM: Yoiner, Breynner, Lilibeth, Alejandra</t>
+  </si>
+  <si>
+    <t>yoiner</t>
+  </si>
+  <si>
+    <t>breynner</t>
+  </si>
+  <si>
+    <t>lilibeth</t>
+  </si>
+  <si>
+    <t>aleja</t>
+  </si>
+  <si>
+    <t>f_menu_tareas</t>
+  </si>
+  <si>
+    <t>f_menu_productos</t>
+  </si>
+  <si>
+    <t>Configuración y Creación Excel de Tareas Productos</t>
+  </si>
+  <si>
+    <t>lili</t>
+  </si>
+  <si>
+    <t>alejandra</t>
   </si>
 </sst>
 </file>
@@ -140,7 +161,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -171,6 +192,12 @@
         <bgColor rgb="FFD0E0E3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0E0E3"/>
+        <bgColor rgb="FFFCE4D6"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -236,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -278,13 +305,32 @@
     <xf numFmtId="164" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFD0E0E3"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -559,15 +605,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="2" max="2" width="55.7109375" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
@@ -577,10 +623,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -611,190 +657,231 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="D4" s="5" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" s="6"/>
-      <c r="G4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="D5" s="9" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" s="10"/>
-      <c r="G5" s="11"/>
+      <c r="G5" s="11" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>13</v>
-      </c>
       <c r="D6" s="9" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" s="10"/>
-      <c r="G6" s="11"/>
+      <c r="G6" s="11" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>15</v>
-      </c>
       <c r="D7" s="9" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" s="10"/>
-      <c r="G7" s="11"/>
+      <c r="G7" s="11" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>17</v>
-      </c>
       <c r="D8" s="9" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
+      <c r="G8" s="11" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
+      <c r="G9" s="11" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>7</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10" s="14"/>
-      <c r="G10" s="15"/>
+      <c r="G10" s="19" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>8</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11" s="14"/>
-      <c r="G11" s="15"/>
+      <c r="G11" s="19" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>9</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F12" s="14"/>
-      <c r="G12" s="15"/>
+      <c r="G12" s="19" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>10</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F13" s="14"/>
-      <c r="G13" s="15"/>
+      <c r="G13" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
+        <v>11</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="18" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/asiganciones.xlsx
+++ b/asiganciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mi unidad\Sena\Danilo\git-flow en grupo\git-flow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D66B7A-23DC-484D-A1D2-C613F9A24601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1DF9CF7-7A4B-487B-A417-E02C5A015687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -608,7 +608,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,14 +768,14 @@
         <v>28</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/asiganciones.xlsx
+++ b/asiganciones.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mi unidad\Sena\Danilo\git-flow en grupo\git-flow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\SENA-ADSI\flow\git-flow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D66B7A-23DC-484D-A1D2-C613F9A24601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C6B0EA-D420-436C-8AE1-961F2E8A722B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -608,20 +608,20 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="55.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="55.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
@@ -629,7 +629,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -652,7 +652,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -673,7 +673,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>2</v>
       </c>
@@ -694,7 +694,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>3</v>
       </c>
@@ -715,7 +715,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>4</v>
       </c>
@@ -736,7 +736,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>5</v>
       </c>
@@ -757,7 +757,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>6</v>
       </c>
@@ -768,17 +768,17 @@
         <v>28</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>7</v>
       </c>
@@ -799,7 +799,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>8</v>
       </c>
@@ -820,7 +820,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>9</v>
       </c>
@@ -841,7 +841,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>10</v>
       </c>
@@ -862,7 +862,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="15">
         <v>11</v>
       </c>

--- a/asiganciones.xlsx
+++ b/asiganciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mi unidad\Sena\Danilo\git-flow en grupo\git-flow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D66B7A-23DC-484D-A1D2-C613F9A24601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A4D672-E51D-4908-BB3C-C5E0C1C8B397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -608,7 +608,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,14 +768,14 @@
         <v>28</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/asiganciones.xlsx
+++ b/asiganciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mi unidad\Sena\Danilo\git-flow en grupo\git-flow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A4D672-E51D-4908-BB3C-C5E0C1C8B397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A39ECE-3E30-48EA-9147-4C4DEA1DAF5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
   <si>
     <t>#</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Responsable</t>
   </si>
   <si>
-    <t>f_config_project</t>
-  </si>
-  <si>
     <t>develop</t>
   </si>
   <si>
@@ -75,9 +72,6 @@
     <t>Eliminar Tarea</t>
   </si>
   <si>
-    <t>f_elimanar_tarea</t>
-  </si>
-  <si>
     <t>Crear Menu de Opciones</t>
   </si>
   <si>
@@ -124,6 +118,18 @@
   </si>
   <si>
     <t>alejandra</t>
+  </si>
+  <si>
+    <t>f_actualizar_producto</t>
+  </si>
+  <si>
+    <t>f_agregar_producto</t>
+  </si>
+  <si>
+    <t>f_elimanar_producto</t>
+  </si>
+  <si>
+    <t>f_eliminar_tarea</t>
   </si>
 </sst>
 </file>
@@ -608,13 +614,13 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="55.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="19.5703125" customWidth="1"/>
@@ -623,10 +629,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -657,20 +663,20 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -678,20 +684,20 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>10</v>
-      </c>
       <c r="D5" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -699,20 +705,20 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>12</v>
-      </c>
       <c r="D6" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -720,20 +726,20 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>14</v>
-      </c>
       <c r="D7" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -741,20 +747,20 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -762,20 +768,20 @@
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -783,20 +789,20 @@
         <v>7</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10" s="14"/>
       <c r="G10" s="19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -804,20 +810,20 @@
         <v>8</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11" s="14"/>
       <c r="G11" s="19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -825,20 +831,20 @@
         <v>9</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -846,20 +852,20 @@
         <v>10</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F13" s="14"/>
       <c r="G13" s="19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -867,20 +873,20 @@
         <v>11</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/asiganciones.xlsx
+++ b/asiganciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mi unidad\Sena\Danilo\git-flow en grupo\git-flow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A39ECE-3E30-48EA-9147-4C4DEA1DAF5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37DEB6F-B22B-4510-BFE8-66B1D38719B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
   <si>
     <t>#</t>
   </si>
@@ -126,10 +126,13 @@
     <t>f_agregar_producto</t>
   </si>
   <si>
-    <t>f_elimanar_producto</t>
-  </si>
-  <si>
     <t>f_eliminar_tarea</t>
+  </si>
+  <si>
+    <t>f_consultar_producto</t>
+  </si>
+  <si>
+    <t>f_eliminar_producto</t>
   </si>
 </sst>
 </file>
@@ -614,7 +617,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,7 +753,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>29</v>
@@ -792,7 +795,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>30</v>
@@ -834,7 +837,7 @@
         <v>18</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>22</v>
